--- a/natmiOut/YoungD7/LR-pairs_lrc2p/Spp1-Itga4.xlsx
+++ b/natmiOut/YoungD7/LR-pairs_lrc2p/Spp1-Itga4.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="26">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -449,7 +449,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T9"/>
+  <dimension ref="A1:T17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -528,55 +528,55 @@
         <v>25</v>
       </c>
       <c r="D2" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>4.21764362749015</v>
+        <v>463.732605</v>
       </c>
       <c r="H2">
-        <v>4.21764362749015</v>
+        <v>1391.197815</v>
       </c>
       <c r="I2">
-        <v>0.007109888501373486</v>
+        <v>0.3632113435366598</v>
       </c>
       <c r="J2">
-        <v>0.007109888501373486</v>
+        <v>0.3632113435366598</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L2">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M2">
-        <v>48.313351902659</v>
+        <v>23.65990166666667</v>
       </c>
       <c r="N2">
-        <v>48.313351902659</v>
+        <v>70.979705</v>
       </c>
       <c r="O2">
-        <v>0.9642802841836725</v>
+        <v>0.2997993941754699</v>
       </c>
       <c r="P2">
-        <v>0.9642802841836725</v>
+        <v>0.29979939417547</v>
       </c>
       <c r="Q2">
-        <v>203.7685007749389</v>
+        <v>10971.86783392717</v>
       </c>
       <c r="R2">
-        <v>203.7685007749389</v>
+        <v>98746.81050534456</v>
       </c>
       <c r="S2">
-        <v>0.00685592530461865</v>
+        <v>0.1088905407499491</v>
       </c>
       <c r="T2">
-        <v>0.00685592530461865</v>
+        <v>0.1088905407499491</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,60 +590,60 @@
         <v>25</v>
       </c>
       <c r="D3" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>4.21764362749015</v>
+        <v>463.732605</v>
       </c>
       <c r="H3">
-        <v>4.21764362749015</v>
+        <v>1391.197815</v>
       </c>
       <c r="I3">
-        <v>0.007109888501373486</v>
+        <v>0.3632113435366598</v>
       </c>
       <c r="J3">
-        <v>0.007109888501373486</v>
+        <v>0.3632113435366598</v>
       </c>
       <c r="K3">
         <v>1</v>
       </c>
       <c r="L3">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M3">
-        <v>1.78966554476239</v>
+        <v>0.07690566666666666</v>
       </c>
       <c r="N3">
-        <v>1.78966554476239</v>
+        <v>0.230717</v>
       </c>
       <c r="O3">
-        <v>0.03571971581632748</v>
+        <v>0.0009744872400636476</v>
       </c>
       <c r="P3">
-        <v>0.03571971581632748</v>
+        <v>0.0009744872400636479</v>
       </c>
       <c r="Q3">
-        <v>7.548171480205783</v>
+        <v>35.66366514259499</v>
       </c>
       <c r="R3">
-        <v>7.548171480205783</v>
+        <v>320.972986283355</v>
       </c>
       <c r="S3">
-        <v>0.0002539631967548354</v>
+        <v>0.000353944819722849</v>
       </c>
       <c r="T3">
-        <v>0.0002539631967548354</v>
+        <v>0.0003539448197228491</v>
       </c>
     </row>
     <row r="4" spans="1:20">
       <c r="A4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B4" t="s">
         <v>24</v>
@@ -655,57 +655,57 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>12.1269934496523</v>
+        <v>463.732605</v>
       </c>
       <c r="H4">
-        <v>12.1269934496523</v>
+        <v>1391.197815</v>
       </c>
       <c r="I4">
-        <v>0.02044306700592992</v>
+        <v>0.3632113435366598</v>
       </c>
       <c r="J4">
-        <v>0.02044306700592992</v>
+        <v>0.3632113435366598</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>48.313351902659</v>
+        <v>53.21452433333334</v>
       </c>
       <c r="N4">
-        <v>48.313351902659</v>
+        <v>159.643573</v>
       </c>
       <c r="O4">
-        <v>0.9642802841836725</v>
+        <v>0.6742919890890982</v>
       </c>
       <c r="P4">
-        <v>0.9642802841836725</v>
+        <v>0.6742919890890983</v>
       </c>
       <c r="Q4">
-        <v>585.8957020542922</v>
+        <v>24677.30999293255</v>
       </c>
       <c r="R4">
-        <v>585.8957020542922</v>
+        <v>222095.789936393</v>
       </c>
       <c r="S4">
-        <v>0.01971284646206396</v>
+        <v>0.2449104992930581</v>
       </c>
       <c r="T4">
-        <v>0.01971284646206396</v>
+        <v>0.2449104992930582</v>
       </c>
     </row>
     <row r="5" spans="1:20">
       <c r="A5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B5" t="s">
         <v>24</v>
@@ -717,57 +717,57 @@
         <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>12.1269934496523</v>
+        <v>463.732605</v>
       </c>
       <c r="H5">
-        <v>12.1269934496523</v>
+        <v>1391.197815</v>
       </c>
       <c r="I5">
-        <v>0.02044306700592992</v>
+        <v>0.3632113435366598</v>
       </c>
       <c r="J5">
-        <v>0.02044306700592992</v>
+        <v>0.3632113435366598</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>1.78966554476239</v>
+        <v>1.967779333333333</v>
       </c>
       <c r="N5">
-        <v>1.78966554476239</v>
+        <v>5.903338</v>
       </c>
       <c r="O5">
-        <v>0.03571971581632748</v>
+        <v>0.02493412949536815</v>
       </c>
       <c r="P5">
-        <v>0.03571971581632748</v>
+        <v>0.02493412949536816</v>
       </c>
       <c r="Q5">
-        <v>21.70326233840192</v>
+        <v>912.52343631183</v>
       </c>
       <c r="R5">
-        <v>21.70326233840192</v>
+        <v>8212.710926806469</v>
       </c>
       <c r="S5">
-        <v>0.0007302205438659574</v>
+        <v>0.009056358673929723</v>
       </c>
       <c r="T5">
-        <v>0.0007302205438659574</v>
+        <v>0.009056358673929727</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B6" t="s">
         <v>24</v>
@@ -776,60 +776,60 @@
         <v>25</v>
       </c>
       <c r="D6" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>541.593394322089</v>
+        <v>12.24662533333333</v>
       </c>
       <c r="H6">
-        <v>541.593394322089</v>
+        <v>36.739876</v>
       </c>
       <c r="I6">
-        <v>0.9129905195432374</v>
+        <v>0.009591978638444229</v>
       </c>
       <c r="J6">
-        <v>0.9129905195432374</v>
+        <v>0.009591978638444227</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L6">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M6">
-        <v>48.313351902659</v>
+        <v>23.65990166666667</v>
       </c>
       <c r="N6">
-        <v>48.313351902659</v>
+        <v>70.979705</v>
       </c>
       <c r="O6">
-        <v>0.9642802841836725</v>
+        <v>0.2997993941754699</v>
       </c>
       <c r="P6">
-        <v>0.9642802841836725</v>
+        <v>0.29979939417547</v>
       </c>
       <c r="Q6">
-        <v>26166.19224803865</v>
+        <v>289.7539511351756</v>
       </c>
       <c r="R6">
-        <v>26166.19224803865</v>
+        <v>2607.78556021658</v>
       </c>
       <c r="S6">
-        <v>0.8803787576421518</v>
+        <v>0.002875669384749629</v>
       </c>
       <c r="T6">
-        <v>0.8803787576421518</v>
+        <v>0.002875669384749629</v>
       </c>
     </row>
     <row r="7" spans="1:20">
       <c r="A7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B7" t="s">
         <v>24</v>
@@ -838,60 +838,60 @@
         <v>25</v>
       </c>
       <c r="D7" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>541.593394322089</v>
+        <v>12.24662533333333</v>
       </c>
       <c r="H7">
-        <v>541.593394322089</v>
+        <v>36.739876</v>
       </c>
       <c r="I7">
-        <v>0.9129905195432374</v>
+        <v>0.009591978638444229</v>
       </c>
       <c r="J7">
-        <v>0.9129905195432374</v>
+        <v>0.009591978638444227</v>
       </c>
       <c r="K7">
         <v>1</v>
       </c>
       <c r="L7">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M7">
-        <v>1.78966554476239</v>
+        <v>0.07690566666666666</v>
       </c>
       <c r="N7">
-        <v>1.78966554476239</v>
+        <v>0.230717</v>
       </c>
       <c r="O7">
-        <v>0.03571971581632748</v>
+        <v>0.0009744872400636476</v>
       </c>
       <c r="P7">
-        <v>0.03571971581632748</v>
+        <v>0.0009744872400636479</v>
       </c>
       <c r="Q7">
-        <v>969.2710370891533</v>
+        <v>0.9418348856768889</v>
       </c>
       <c r="R7">
-        <v>969.2710370891533</v>
+        <v>8.476513971092</v>
       </c>
       <c r="S7">
-        <v>0.03261176190108563</v>
+        <v>9.34726079012698E-06</v>
       </c>
       <c r="T7">
-        <v>0.03261176190108563</v>
+        <v>9.347260790126982E-06</v>
       </c>
     </row>
     <row r="8" spans="1:20">
       <c r="A8" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B8" t="s">
         <v>24</v>
@@ -903,57 +903,57 @@
         <v>22</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>35.2700936895638</v>
+        <v>12.24662533333333</v>
       </c>
       <c r="H8">
-        <v>35.2700936895638</v>
+        <v>36.739876</v>
       </c>
       <c r="I8">
-        <v>0.05945652494945908</v>
+        <v>0.009591978638444229</v>
       </c>
       <c r="J8">
-        <v>0.05945652494945908</v>
+        <v>0.009591978638444227</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>48.313351902659</v>
+        <v>53.21452433333334</v>
       </c>
       <c r="N8">
-        <v>48.313351902659</v>
+        <v>159.643573</v>
       </c>
       <c r="O8">
-        <v>0.9642802841836725</v>
+        <v>0.6742919890890982</v>
       </c>
       <c r="P8">
-        <v>0.9642802841836725</v>
+        <v>0.6742919890890983</v>
       </c>
       <c r="Q8">
-        <v>1704.016448063649</v>
+        <v>651.6983418018832</v>
       </c>
       <c r="R8">
-        <v>1704.016448063649</v>
+        <v>5865.285076216948</v>
       </c>
       <c r="S8">
-        <v>0.05733275477483801</v>
+        <v>0.006467794355416698</v>
       </c>
       <c r="T8">
-        <v>0.05733275477483801</v>
+        <v>0.006467794355416698</v>
       </c>
     </row>
     <row r="9" spans="1:20">
       <c r="A9" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B9" t="s">
         <v>24</v>
@@ -965,52 +965,548 @@
         <v>23</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>35.2700936895638</v>
+        <v>12.24662533333333</v>
       </c>
       <c r="H9">
-        <v>35.2700936895638</v>
+        <v>36.739876</v>
       </c>
       <c r="I9">
-        <v>0.05945652494945908</v>
+        <v>0.009591978638444229</v>
       </c>
       <c r="J9">
-        <v>0.05945652494945908</v>
+        <v>0.009591978638444227</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>1.78966554476239</v>
+        <v>1.967779333333333</v>
       </c>
       <c r="N9">
-        <v>1.78966554476239</v>
+        <v>5.903338</v>
       </c>
       <c r="O9">
-        <v>0.03571971581632748</v>
+        <v>0.02493412949536815</v>
       </c>
       <c r="P9">
-        <v>0.03571971581632748</v>
+        <v>0.02493412949536816</v>
       </c>
       <c r="Q9">
-        <v>63.12167143675373</v>
+        <v>24.09865623400978</v>
       </c>
       <c r="R9">
-        <v>63.12167143675373</v>
+        <v>216.887906106088</v>
       </c>
       <c r="S9">
-        <v>0.002123770174621063</v>
+        <v>0.0002391676374877735</v>
       </c>
       <c r="T9">
-        <v>0.002123770174621063</v>
+        <v>0.0002391676374877735</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
+      <c r="A10" t="s">
+        <v>22</v>
+      </c>
+      <c r="B10" t="s">
+        <v>24</v>
+      </c>
+      <c r="C10" t="s">
+        <v>25</v>
+      </c>
+      <c r="D10" t="s">
+        <v>20</v>
+      </c>
+      <c r="E10">
+        <v>3</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10">
+        <v>689.7685036666667</v>
+      </c>
+      <c r="H10">
+        <v>2069.305511</v>
+      </c>
+      <c r="I10">
+        <v>0.5402504422695089</v>
+      </c>
+      <c r="J10">
+        <v>0.5402504422695089</v>
+      </c>
+      <c r="K10">
+        <v>2</v>
+      </c>
+      <c r="L10">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M10">
+        <v>23.65990166666667</v>
+      </c>
+      <c r="N10">
+        <v>70.979705</v>
+      </c>
+      <c r="O10">
+        <v>0.2997993941754699</v>
+      </c>
+      <c r="P10">
+        <v>0.29979939417547</v>
+      </c>
+      <c r="Q10">
+        <v>16319.85496951714</v>
+      </c>
+      <c r="R10">
+        <v>146878.6947256542</v>
+      </c>
+      <c r="S10">
+        <v>0.1619667552954284</v>
+      </c>
+      <c r="T10">
+        <v>0.1619667552954285</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
+      <c r="A11" t="s">
+        <v>22</v>
+      </c>
+      <c r="B11" t="s">
+        <v>24</v>
+      </c>
+      <c r="C11" t="s">
+        <v>25</v>
+      </c>
+      <c r="D11" t="s">
+        <v>21</v>
+      </c>
+      <c r="E11">
+        <v>3</v>
+      </c>
+      <c r="F11">
+        <v>1</v>
+      </c>
+      <c r="G11">
+        <v>689.7685036666667</v>
+      </c>
+      <c r="H11">
+        <v>2069.305511</v>
+      </c>
+      <c r="I11">
+        <v>0.5402504422695089</v>
+      </c>
+      <c r="J11">
+        <v>0.5402504422695089</v>
+      </c>
+      <c r="K11">
+        <v>1</v>
+      </c>
+      <c r="L11">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M11">
+        <v>0.07690566666666666</v>
+      </c>
+      <c r="N11">
+        <v>0.230717</v>
+      </c>
+      <c r="O11">
+        <v>0.0009744872400636476</v>
+      </c>
+      <c r="P11">
+        <v>0.0009744872400636479</v>
+      </c>
+      <c r="Q11">
+        <v>53.04710662015411</v>
+      </c>
+      <c r="R11">
+        <v>477.423959581387</v>
+      </c>
+      <c r="S11">
+        <v>0.0005264671624303787</v>
+      </c>
+      <c r="T11">
+        <v>0.0005264671624303789</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
+      <c r="A12" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12" t="s">
+        <v>24</v>
+      </c>
+      <c r="C12" t="s">
+        <v>25</v>
+      </c>
+      <c r="D12" t="s">
+        <v>22</v>
+      </c>
+      <c r="E12">
+        <v>3</v>
+      </c>
+      <c r="F12">
+        <v>1</v>
+      </c>
+      <c r="G12">
+        <v>689.7685036666667</v>
+      </c>
+      <c r="H12">
+        <v>2069.305511</v>
+      </c>
+      <c r="I12">
+        <v>0.5402504422695089</v>
+      </c>
+      <c r="J12">
+        <v>0.5402504422695089</v>
+      </c>
+      <c r="K12">
+        <v>3</v>
+      </c>
+      <c r="L12">
+        <v>1</v>
+      </c>
+      <c r="M12">
+        <v>53.21452433333334</v>
+      </c>
+      <c r="N12">
+        <v>159.643573</v>
+      </c>
+      <c r="O12">
+        <v>0.6742919890890982</v>
+      </c>
+      <c r="P12">
+        <v>0.6742919890890983</v>
+      </c>
+      <c r="Q12">
+        <v>36705.70282273676</v>
+      </c>
+      <c r="R12">
+        <v>330351.3254046308</v>
+      </c>
+      <c r="S12">
+        <v>0.3642865453241722</v>
+      </c>
+      <c r="T12">
+        <v>0.3642865453241722</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
+      <c r="A13" t="s">
+        <v>22</v>
+      </c>
+      <c r="B13" t="s">
+        <v>24</v>
+      </c>
+      <c r="C13" t="s">
+        <v>25</v>
+      </c>
+      <c r="D13" t="s">
+        <v>23</v>
+      </c>
+      <c r="E13">
+        <v>3</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+      <c r="G13">
+        <v>689.7685036666667</v>
+      </c>
+      <c r="H13">
+        <v>2069.305511</v>
+      </c>
+      <c r="I13">
+        <v>0.5402504422695089</v>
+      </c>
+      <c r="J13">
+        <v>0.5402504422695089</v>
+      </c>
+      <c r="K13">
+        <v>3</v>
+      </c>
+      <c r="L13">
+        <v>1</v>
+      </c>
+      <c r="M13">
+        <v>1.967779333333333</v>
+      </c>
+      <c r="N13">
+        <v>5.903338</v>
+      </c>
+      <c r="O13">
+        <v>0.02493412949536815</v>
+      </c>
+      <c r="P13">
+        <v>0.02493412949536816</v>
+      </c>
+      <c r="Q13">
+        <v>1357.312206299524</v>
+      </c>
+      <c r="R13">
+        <v>12215.80985669572</v>
+      </c>
+      <c r="S13">
+        <v>0.01347067448747785</v>
+      </c>
+      <c r="T13">
+        <v>0.01347067448747785</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" t="s">
+        <v>23</v>
+      </c>
+      <c r="B14" t="s">
+        <v>24</v>
+      </c>
+      <c r="C14" t="s">
+        <v>25</v>
+      </c>
+      <c r="D14" t="s">
+        <v>20</v>
+      </c>
+      <c r="E14">
+        <v>3</v>
+      </c>
+      <c r="F14">
+        <v>1</v>
+      </c>
+      <c r="G14">
+        <v>111.00921</v>
+      </c>
+      <c r="H14">
+        <v>333.02763</v>
+      </c>
+      <c r="I14">
+        <v>0.08694623555538696</v>
+      </c>
+      <c r="J14">
+        <v>0.08694623555538696</v>
+      </c>
+      <c r="K14">
+        <v>2</v>
+      </c>
+      <c r="L14">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M14">
+        <v>23.65990166666667</v>
+      </c>
+      <c r="N14">
+        <v>70.979705</v>
+      </c>
+      <c r="O14">
+        <v>0.2997993941754699</v>
+      </c>
+      <c r="P14">
+        <v>0.29979939417547</v>
+      </c>
+      <c r="Q14">
+        <v>2626.46699269435</v>
+      </c>
+      <c r="R14">
+        <v>23638.20293424915</v>
+      </c>
+      <c r="S14">
+        <v>0.02606642874534271</v>
+      </c>
+      <c r="T14">
+        <v>0.02606642874534272</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" t="s">
+        <v>23</v>
+      </c>
+      <c r="B15" t="s">
+        <v>24</v>
+      </c>
+      <c r="C15" t="s">
+        <v>25</v>
+      </c>
+      <c r="D15" t="s">
+        <v>21</v>
+      </c>
+      <c r="E15">
+        <v>3</v>
+      </c>
+      <c r="F15">
+        <v>1</v>
+      </c>
+      <c r="G15">
+        <v>111.00921</v>
+      </c>
+      <c r="H15">
+        <v>333.02763</v>
+      </c>
+      <c r="I15">
+        <v>0.08694623555538696</v>
+      </c>
+      <c r="J15">
+        <v>0.08694623555538696</v>
+      </c>
+      <c r="K15">
+        <v>1</v>
+      </c>
+      <c r="L15">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M15">
+        <v>0.07690566666666666</v>
+      </c>
+      <c r="N15">
+        <v>0.230717</v>
+      </c>
+      <c r="O15">
+        <v>0.0009744872400636476</v>
+      </c>
+      <c r="P15">
+        <v>0.0009744872400636479</v>
+      </c>
+      <c r="Q15">
+        <v>8.53723730119</v>
+      </c>
+      <c r="R15">
+        <v>76.83513571071001</v>
+      </c>
+      <c r="S15">
+        <v>8.472799712029282E-05</v>
+      </c>
+      <c r="T15">
+        <v>8.472799712029285E-05</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" t="s">
+        <v>23</v>
+      </c>
+      <c r="B16" t="s">
+        <v>24</v>
+      </c>
+      <c r="C16" t="s">
+        <v>25</v>
+      </c>
+      <c r="D16" t="s">
+        <v>22</v>
+      </c>
+      <c r="E16">
+        <v>3</v>
+      </c>
+      <c r="F16">
+        <v>1</v>
+      </c>
+      <c r="G16">
+        <v>111.00921</v>
+      </c>
+      <c r="H16">
+        <v>333.02763</v>
+      </c>
+      <c r="I16">
+        <v>0.08694623555538696</v>
+      </c>
+      <c r="J16">
+        <v>0.08694623555538696</v>
+      </c>
+      <c r="K16">
+        <v>3</v>
+      </c>
+      <c r="L16">
+        <v>1</v>
+      </c>
+      <c r="M16">
+        <v>53.21452433333334</v>
+      </c>
+      <c r="N16">
+        <v>159.643573</v>
+      </c>
+      <c r="O16">
+        <v>0.6742919890890982</v>
+      </c>
+      <c r="P16">
+        <v>0.6742919890890983</v>
+      </c>
+      <c r="Q16">
+        <v>5907.30230676911</v>
+      </c>
+      <c r="R16">
+        <v>53165.72076092199</v>
+      </c>
+      <c r="S16">
+        <v>0.05862715011645114</v>
+      </c>
+      <c r="T16">
+        <v>0.05862715011645115</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17" t="s">
+        <v>24</v>
+      </c>
+      <c r="C17" t="s">
+        <v>25</v>
+      </c>
+      <c r="D17" t="s">
+        <v>23</v>
+      </c>
+      <c r="E17">
+        <v>3</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+      <c r="G17">
+        <v>111.00921</v>
+      </c>
+      <c r="H17">
+        <v>333.02763</v>
+      </c>
+      <c r="I17">
+        <v>0.08694623555538696</v>
+      </c>
+      <c r="J17">
+        <v>0.08694623555538696</v>
+      </c>
+      <c r="K17">
+        <v>3</v>
+      </c>
+      <c r="L17">
+        <v>1</v>
+      </c>
+      <c r="M17">
+        <v>1.967779333333333</v>
+      </c>
+      <c r="N17">
+        <v>5.903338</v>
+      </c>
+      <c r="O17">
+        <v>0.02493412949536815</v>
+      </c>
+      <c r="P17">
+        <v>0.02493412949536816</v>
+      </c>
+      <c r="Q17">
+        <v>218.44162924766</v>
+      </c>
+      <c r="R17">
+        <v>1965.97466322894</v>
+      </c>
+      <c r="S17">
+        <v>0.002167928696472801</v>
+      </c>
+      <c r="T17">
+        <v>0.002167928696472801</v>
       </c>
     </row>
   </sheetData>
